--- a/biology/Zoologie/Ecrobia_maritima/Ecrobia_maritima.xlsx
+++ b/biology/Zoologie/Ecrobia_maritima/Ecrobia_maritima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecrobia maritima est une espèce de très petits escargots aquatiques de la famille des Hydrobiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille d'une coquille adulte atteint 4 mm.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ecrobia maritima se rencontre dans le lac Pomorie (en) (une lagune hypersaline de l'Est de la Bulgarie), en mer Noire et en  mer Égée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ecrobia maritima se rencontre dans le lac Pomorie (en) (une lagune hypersaline de l'Est de la Bulgarie), en mer Noire et en  mer Égée.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ecrobia maritima (Milaschewitsch, 1916)[2].
-L'espèce a été initialement classée dans le genre Hydrobia sous le protonyme Hydrobia maritima Milaschewitsch, 1916[2].
-Ecrobia maritima a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ecrobia maritima (Milaschewitsch, 1916).
+L'espèce a été initialement classée dans le genre Hydrobia sous le protonyme Hydrobia maritima Milaschewitsch, 1916.
+Ecrobia maritima a pour synonymes :
 Ecrobia pontieuxini (Radoman, 1973)
 Graecoanatolica yildirimi Glöer &amp; Pešić, 2015
 Hydrobia maritima Milaschewitsch, 1916
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(ru) K. O. Milaschewitsch, [Molluscs of Russian seas] : [Molluscs of the Black and Azov seas], vol. 1, Pétrograd, 1916, 312 p. (lire en ligne), p. 60-61.</t>
         </is>
